--- a/biology/Médecine/Thure_von_Uexküll/Thure_von_Uexküll.xlsx
+++ b/biology/Médecine/Thure_von_Uexküll/Thure_von_Uexküll.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thure_von_Uexk%C3%BCll</t>
+          <t>Thure_von_Uexküll</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Kuno Thure Freiherr von Uexküll, né le 15 mars 1908 à Heidelberg et mort le 29 septembre 2004 à Freiburg, est un spécialiste allemand de la médecine psychosomatique et de la biosémiotique. Il a développé l'approche de son père, Jakob von Uexküll, dans l'étude des systèmes vivants et l'a appliquée en médecine. 
 Sa mère était Gudrun Baronne von Uexküll (Gräfin von Schwerin).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thure_von_Uexk%C3%BCll</t>
+          <t>Thure_von_Uexküll</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1955–1965
 Directeur du service médical ambulatoire de l'Université de Giessen
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thure_von_Uexk%C3%BCll</t>
+          <t>Thure_von_Uexküll</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur honoris causa de l'Université de Tartu (1994) 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thure_von_Uexk%C3%BCll</t>
+          <t>Thure_von_Uexküll</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Der Sinn des Lebens (with Jakob von Uexküll). Godesberg: H.Küpper (1947).
 Der Mensch und die Natur. Grundzüge einer Naturphilosophie. Bern: Francke (1953).
